--- a/.playwright-mcp/CUI-Sorties-20260120.xlsx
+++ b/.playwright-mcp/CUI-Sorties-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,12 +426,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 04:36:42Z</v>
+        <v>Generated: 2026-01-20 09:56:08Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Sorties: 5</v>
+        <v>Total Sorties: 4</v>
       </c>
     </row>
     <row r="7">
@@ -468,115 +468,115 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>TEST-FEATURE-139-SORTIE</v>
+        <v>CRIIS-SORTIE-004</v>
       </c>
       <c r="B8" t="str">
-        <v>CRIIS-002</v>
+        <v>CRIIS-003</v>
       </c>
       <c r="C8" t="str">
-        <v>CRIIS-002</v>
+        <v>AC-003</v>
       </c>
       <c r="D8" t="str">
-        <v>2026-01-20 00:00:00Z</v>
+        <v>2026-01-18 00:00:00Z</v>
       </c>
       <c r="E8" t="str">
-        <v>Partial Mission Capable</v>
+        <v>Full Mission Capable</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>Range C</v>
       </c>
       <c r="G8" t="str">
-        <v>CRIIS</v>
+        <v>Unit Charlie</v>
       </c>
       <c r="H8" t="str">
-        <v>CRIIS</v>
+        <v>Unit Charlie</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>Surveillance mission</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>All systems operational</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>CRIIS-SORTIE-004</v>
+        <v>CRIIS-SORTIE-002</v>
       </c>
       <c r="B9" t="str">
-        <v>CRIIS-003</v>
+        <v>CRIIS-005</v>
       </c>
       <c r="C9" t="str">
-        <v>AC-003</v>
+        <v>AC-005</v>
       </c>
       <c r="D9" t="str">
-        <v>2026-01-18 00:00:00Z</v>
+        <v>2026-01-17 00:00:00Z</v>
       </c>
       <c r="E9" t="str">
-        <v>Full Mission Capable</v>
+        <v>Partial Mission Capable</v>
       </c>
       <c r="F9" t="str">
-        <v>Range C</v>
+        <v>Range B</v>
       </c>
       <c r="G9" t="str">
-        <v>Unit Charlie</v>
+        <v>Unit Bravo</v>
       </c>
       <c r="H9" t="str">
-        <v>Unit Charlie</v>
+        <v>Unit Alpha</v>
       </c>
       <c r="I9" t="str">
-        <v>Surveillance mission</v>
+        <v>Training exercise</v>
       </c>
       <c r="J9" t="str">
-        <v>All systems operational</v>
+        <v>Camera system showed intermittent issues</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>CRIIS-SORTIE-002</v>
+        <v>CRIIS-SORTIE-001</v>
       </c>
       <c r="B10" t="str">
-        <v>CRIIS-005</v>
+        <v>CRIIS-001</v>
       </c>
       <c r="C10" t="str">
-        <v>AC-005</v>
+        <v>AC-001</v>
       </c>
       <c r="D10" t="str">
-        <v>2026-01-17 00:00:00Z</v>
+        <v>2026-01-15 00:00:00Z</v>
       </c>
       <c r="E10" t="str">
-        <v>Partial Mission Capable</v>
+        <v>Full Mission Capable</v>
       </c>
       <c r="F10" t="str">
-        <v>Range B</v>
+        <v>Range A</v>
       </c>
       <c r="G10" t="str">
-        <v>Unit Bravo</v>
+        <v>Unit Alpha</v>
       </c>
       <c r="H10" t="str">
         <v>Unit Alpha</v>
       </c>
       <c r="I10" t="str">
-        <v>Training exercise</v>
+        <v>Operational deployment</v>
       </c>
       <c r="J10" t="str">
-        <v>Camera system showed intermittent issues</v>
+        <v>Successful reconnaissance mission</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>CRIIS-SORTIE-001</v>
+        <v>CRIIS-SORTIE-003</v>
       </c>
       <c r="B11" t="str">
-        <v>CRIIS-001</v>
+        <v>CRIIS-006</v>
       </c>
       <c r="C11" t="str">
-        <v>AC-001</v>
+        <v>AC-006</v>
       </c>
       <c r="D11" t="str">
-        <v>2026-01-15 00:00:00Z</v>
+        <v>2026-01-10 00:00:00Z</v>
       </c>
       <c r="E11" t="str">
-        <v>Full Mission Capable</v>
+        <v>Non-Mission Capable</v>
       </c>
       <c r="F11" t="str">
         <v>Range A</v>
@@ -588,46 +588,14 @@
         <v>Unit Alpha</v>
       </c>
       <c r="I11" t="str">
-        <v>Operational deployment</v>
+        <v>Maintenance check flight</v>
       </c>
       <c r="J11" t="str">
-        <v>Successful reconnaissance mission</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>CRIIS-SORTIE-003</v>
-      </c>
-      <c r="B12" t="str">
-        <v>CRIIS-006</v>
-      </c>
-      <c r="C12" t="str">
-        <v>AC-006</v>
-      </c>
-      <c r="D12" t="str">
-        <v>2026-01-10 00:00:00Z</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Non-Mission Capable</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Range A</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Unit Alpha</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Unit Alpha</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Maintenance check flight</v>
-      </c>
-      <c r="J12" t="str">
         <v>Power supply failure detected during flight</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
+    <row r="13">
+      <c r="A13" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
@@ -637,10 +605,10 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A13:J13"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/.playwright-mcp/CUI-Sorties-20260120.xlsx
+++ b/.playwright-mcp/CUI-Sorties-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,12 +426,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 09:56:08Z</v>
+        <v>Generated: 2026-01-20 15:36:17Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Sorties: 4</v>
+        <v>Total Sorties: 6</v>
       </c>
     </row>
     <row r="7">
@@ -468,134 +468,198 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>CRIIS-SORTIE-004</v>
+        <v>TEST-FEATURE-136-VALID-002</v>
       </c>
       <c r="B8" t="str">
-        <v>CRIIS-003</v>
+        <v>CRIIS-002</v>
       </c>
       <c r="C8" t="str">
-        <v>AC-003</v>
+        <v>CRIIS-002</v>
       </c>
       <c r="D8" t="str">
-        <v>2026-01-18 00:00:00Z</v>
+        <v>2026-01-21 00:00:00Z</v>
       </c>
       <c r="E8" t="str">
-        <v>Full Mission Capable</v>
+        <v>Partial Mission Capable</v>
       </c>
       <c r="F8" t="str">
-        <v>Range C</v>
+        <v>Range Y</v>
       </c>
       <c r="G8" t="str">
-        <v>Unit Charlie</v>
+        <v>CRIIS</v>
       </c>
       <c r="H8" t="str">
-        <v>Unit Charlie</v>
+        <v>CRIIS</v>
       </c>
       <c r="I8" t="str">
-        <v>Surveillance mission</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v>All systems operational</v>
+        <v>Feature 136 test - valid import 2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>CRIIS-SORTIE-002</v>
+        <v>TEST-FEATURE-136-VALID-001</v>
       </c>
       <c r="B9" t="str">
-        <v>CRIIS-005</v>
+        <v>CRIIS-001</v>
       </c>
       <c r="C9" t="str">
-        <v>AC-005</v>
+        <v>CRIIS-001</v>
       </c>
       <c r="D9" t="str">
-        <v>2026-01-17 00:00:00Z</v>
+        <v>2026-01-20 00:00:00Z</v>
       </c>
       <c r="E9" t="str">
-        <v>Partial Mission Capable</v>
+        <v>Full Mission Capable</v>
       </c>
       <c r="F9" t="str">
-        <v>Range B</v>
+        <v>Range X</v>
       </c>
       <c r="G9" t="str">
-        <v>Unit Bravo</v>
+        <v>CRIIS</v>
       </c>
       <c r="H9" t="str">
-        <v>Unit Alpha</v>
+        <v>CRIIS</v>
       </c>
       <c r="I9" t="str">
-        <v>Training exercise</v>
+        <v/>
       </c>
       <c r="J9" t="str">
-        <v>Camera system showed intermittent issues</v>
+        <v>Feature 136 test - valid import 1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>CRIIS-SORTIE-001</v>
+        <v>CRIIS-SORTIE-004</v>
       </c>
       <c r="B10" t="str">
-        <v>CRIIS-001</v>
+        <v>CRIIS-003</v>
       </c>
       <c r="C10" t="str">
-        <v>AC-001</v>
+        <v>AC-003</v>
       </c>
       <c r="D10" t="str">
-        <v>2026-01-15 00:00:00Z</v>
+        <v>2026-01-18 00:00:00Z</v>
       </c>
       <c r="E10" t="str">
         <v>Full Mission Capable</v>
       </c>
       <c r="F10" t="str">
-        <v>Range A</v>
+        <v>Range C</v>
       </c>
       <c r="G10" t="str">
-        <v>Unit Alpha</v>
+        <v>Unit Charlie</v>
       </c>
       <c r="H10" t="str">
-        <v>Unit Alpha</v>
+        <v>Unit Charlie</v>
       </c>
       <c r="I10" t="str">
-        <v>Operational deployment</v>
+        <v>Surveillance mission</v>
       </c>
       <c r="J10" t="str">
-        <v>Successful reconnaissance mission</v>
+        <v>All systems operational</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>CRIIS-SORTIE-003</v>
+        <v>CRIIS-SORTIE-002</v>
       </c>
       <c r="B11" t="str">
-        <v>CRIIS-006</v>
+        <v>CRIIS-005</v>
       </c>
       <c r="C11" t="str">
-        <v>AC-006</v>
+        <v>AC-005</v>
       </c>
       <c r="D11" t="str">
-        <v>2026-01-10 00:00:00Z</v>
+        <v>2026-01-17 00:00:00Z</v>
       </c>
       <c r="E11" t="str">
-        <v>Non-Mission Capable</v>
+        <v>Partial Mission Capable</v>
       </c>
       <c r="F11" t="str">
-        <v>Range A</v>
+        <v>Range B</v>
       </c>
       <c r="G11" t="str">
-        <v>Unit Alpha</v>
+        <v>Unit Bravo</v>
       </c>
       <c r="H11" t="str">
         <v>Unit Alpha</v>
       </c>
       <c r="I11" t="str">
-        <v>Maintenance check flight</v>
+        <v>Training exercise</v>
       </c>
       <c r="J11" t="str">
-        <v>Power supply failure detected during flight</v>
+        <v>Camera system showed intermittent issues</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>CRIIS-SORTIE-001</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CRIIS-001</v>
+      </c>
+      <c r="C12" t="str">
+        <v>AC-001</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2026-01-15 00:00:00Z</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Range A</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Unit Alpha</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Unit Alpha</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Operational deployment</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Successful reconnaissance mission</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <v>CRIIS-SORTIE-003</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CRIIS-006</v>
+      </c>
+      <c r="C13" t="str">
+        <v>AC-006</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2026-01-10 00:00:00Z</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Non-Mission Capable</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Range A</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Unit Alpha</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Unit Alpha</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Maintenance check flight</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Power supply failure detected during flight</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
@@ -605,10 +669,10 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/.playwright-mcp/CUI-Sorties-20260120.xlsx
+++ b/.playwright-mcp/CUI-Sorties-20260120.xlsx
@@ -397,282 +397,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="10" width="40.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>CONTROLLED UNCLASSIFIED INFORMATION (CUI)</v>
+        <v>Asset Serial Number*</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Mission ID*</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Sortie Date (YYYY-MM-DD)*</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Sortie Effect</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Range</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Remarks</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>CRIIS-005</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CRIIS-SORTIE-002</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Partial Mission Capable</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Range B</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Camera system showed intermittent issues</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>RIMSS Sorties Report</v>
+        <v>CRIIS-001</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CRIIS-SORTIE-001</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Full Mission Capable</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Range A</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Successful reconnaissance mission</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 15:36:17Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Total Sorties: 6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Mission ID</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Serial Number</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Tail Number</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Sortie Date (ZULU)</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Sortie Effect</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Range</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Current Unit</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Assigned Unit</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Reason</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Remarks</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>TEST-FEATURE-136-VALID-002</v>
-      </c>
-      <c r="B8" t="str">
-        <v>CRIIS-002</v>
-      </c>
-      <c r="C8" t="str">
-        <v>CRIIS-002</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2026-01-21 00:00:00Z</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Partial Mission Capable</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Range Y</v>
-      </c>
-      <c r="G8" t="str">
-        <v>CRIIS</v>
-      </c>
-      <c r="H8" t="str">
-        <v>CRIIS</v>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v>Feature 136 test - valid import 2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>TEST-FEATURE-136-VALID-001</v>
-      </c>
-      <c r="B9" t="str">
-        <v>CRIIS-001</v>
-      </c>
-      <c r="C9" t="str">
-        <v>CRIIS-001</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2026-01-20 00:00:00Z</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Full Mission Capable</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Range X</v>
-      </c>
-      <c r="G9" t="str">
-        <v>CRIIS</v>
-      </c>
-      <c r="H9" t="str">
-        <v>CRIIS</v>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v>Feature 136 test - valid import 1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>CRIIS-SORTIE-004</v>
-      </c>
-      <c r="B10" t="str">
-        <v>CRIIS-003</v>
-      </c>
-      <c r="C10" t="str">
-        <v>AC-003</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2026-01-18 00:00:00Z</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Full Mission Capable</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Range C</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Unit Charlie</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Unit Charlie</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Surveillance mission</v>
-      </c>
-      <c r="J10" t="str">
-        <v>All systems operational</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>CRIIS-SORTIE-002</v>
-      </c>
-      <c r="B11" t="str">
-        <v>CRIIS-005</v>
-      </c>
-      <c r="C11" t="str">
-        <v>AC-005</v>
-      </c>
-      <c r="D11" t="str">
-        <v>2026-01-17 00:00:00Z</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Partial Mission Capable</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Range B</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Unit Bravo</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Unit Alpha</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Training exercise</v>
-      </c>
-      <c r="J11" t="str">
-        <v>Camera system showed intermittent issues</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>CRIIS-SORTIE-001</v>
-      </c>
-      <c r="B12" t="str">
-        <v>CRIIS-001</v>
-      </c>
-      <c r="C12" t="str">
-        <v>AC-001</v>
-      </c>
-      <c r="D12" t="str">
-        <v>2026-01-15 00:00:00Z</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Full Mission Capable</v>
-      </c>
-      <c r="F12" t="str">
+        <v>CRIIS-006</v>
+      </c>
+      <c r="B4" t="str">
+        <v>CRIIS-SORTIE-003</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Non-Mission Capable</v>
+      </c>
+      <c r="E4" t="str">
         <v>Range A</v>
       </c>
-      <c r="G12" t="str">
-        <v>Unit Alpha</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Unit Alpha</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Operational deployment</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Successful reconnaissance mission</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>CRIIS-SORTIE-003</v>
-      </c>
-      <c r="B13" t="str">
-        <v>CRIIS-006</v>
-      </c>
-      <c r="C13" t="str">
-        <v>AC-006</v>
-      </c>
-      <c r="D13" t="str">
-        <v>2026-01-10 00:00:00Z</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Non-Mission Capable</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Range A</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Unit Alpha</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Unit Alpha</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Maintenance check flight</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="F4" t="str">
         <v>Power supply failure detected during flight</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A15:J15"/>
-  </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>